--- a/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B3E721-B25B-4ECA-81E3-1A064EEA88B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E2D0FC-CDDB-4EDB-B778-EA73CFB882F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="121">
   <si>
     <t>PERIOD</t>
   </si>
@@ -350,6 +350,54 @@
   </si>
   <si>
     <t>2019</t>
+  </si>
+  <si>
+    <t>4/15,16</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>9/17-25/2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>DOMESTIC 3/3</t>
+  </si>
+  <si>
+    <t>DOMESTIC 7/16</t>
+  </si>
+  <si>
+    <t>FILIAL 12/1</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>FILIAL 1/3</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2/2</t>
+  </si>
+  <si>
+    <t>3/1-4/2022</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>7/4-8/2022</t>
+  </si>
+  <si>
+    <t>DOMESTIC 8/2</t>
   </si>
 </sst>
 </file>
@@ -586,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,6 +770,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,10 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,21 +820,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1034,6 +1070,21 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2751,7 +2802,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K175" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K191" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -2760,16 +2811,16 @@
     <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2781,13 +2832,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
     <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
     <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2796,14 +2847,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3100,7 +3151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3129,12 +3180,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K175"/>
+  <dimension ref="A2:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A157" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A170" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
+      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3156,66 +3207,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="58">
         <v>41106</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3241,18 +3292,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3299,7 +3350,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>114.00700000000001</v>
+        <v>86.007000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3309,13 +3360,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>96.125</v>
+        <v>84.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="20"/>
@@ -3403,7 +3454,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <f t="shared" ref="A14:A104" si="0">EDATE(A13,1)</f>
+        <f t="shared" ref="A14:A103" si="0">EDATE(A13,1)</f>
         <v>41183</v>
       </c>
       <c r="B14" s="20"/>
@@ -3475,7 +3526,7 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="15"/>
@@ -3565,7 +3616,7 @@
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="60">
+      <c r="K20" s="48">
         <v>41353</v>
       </c>
     </row>
@@ -3585,7 +3636,7 @@
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="48" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3612,7 +3663,7 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="60">
+      <c r="K22" s="48">
         <v>41379</v>
       </c>
     </row>
@@ -3749,7 +3800,7 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="60">
+      <c r="K28" s="48">
         <v>41472</v>
       </c>
     </row>
@@ -3821,7 +3872,7 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="60">
+      <c r="K31" s="48">
         <v>41543</v>
       </c>
     </row>
@@ -3889,7 +3940,7 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="60">
+      <c r="K34" s="48">
         <v>41610</v>
       </c>
     </row>
@@ -3915,7 +3966,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B36" s="20"/>
@@ -3955,7 +4006,7 @@
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="60">
+      <c r="K37" s="48">
         <v>41663</v>
       </c>
     </row>
@@ -4004,7 +4055,7 @@
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="60">
+      <c r="K39" s="48">
         <v>41694</v>
       </c>
     </row>
@@ -4031,7 +4082,7 @@
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="60">
+      <c r="K40" s="48">
         <v>41722</v>
       </c>
     </row>
@@ -4085,7 +4136,7 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="60">
+      <c r="K42" s="48">
         <v>41781</v>
       </c>
     </row>
@@ -4107,7 +4158,7 @@
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="60"/>
+      <c r="K43" s="48"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
@@ -4259,7 +4310,7 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="60">
+      <c r="K49" s="48">
         <v>41971</v>
       </c>
     </row>
@@ -4309,7 +4360,7 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="47" t="s">
         <v>76</v>
       </c>
       <c r="B52" s="20"/>
@@ -4481,7 +4532,7 @@
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="60">
+      <c r="K59" s="48">
         <v>42198</v>
       </c>
     </row>
@@ -4508,7 +4559,7 @@
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="60">
+      <c r="K60" s="48">
         <v>42241</v>
       </c>
     </row>
@@ -4535,7 +4586,7 @@
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="60">
+      <c r="K61" s="48">
         <v>42277</v>
       </c>
     </row>
@@ -4562,7 +4613,7 @@
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="60">
+      <c r="K62" s="48">
         <v>42279</v>
       </c>
     </row>
@@ -4584,7 +4635,7 @@
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="60">
+      <c r="K63" s="48">
         <v>42296</v>
       </c>
     </row>
@@ -4631,7 +4682,7 @@
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="60">
+      <c r="K65" s="48">
         <v>42311</v>
       </c>
     </row>
@@ -4653,7 +4704,7 @@
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="60">
+      <c r="K66" s="48">
         <v>42323</v>
       </c>
     </row>
@@ -4678,12 +4729,12 @@
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="60">
+      <c r="K67" s="48">
         <v>42339</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="47" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="20"/>
@@ -4698,7 +4749,7 @@
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="60"/>
+      <c r="K68" s="48"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
@@ -4813,7 +4864,7 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="60">
+      <c r="K73" s="48">
         <v>42496</v>
       </c>
     </row>
@@ -4835,7 +4886,7 @@
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="60" t="s">
+      <c r="K74" s="48" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4860,7 +4911,7 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="60">
+      <c r="K75" s="48">
         <v>42548</v>
       </c>
     </row>
@@ -4887,7 +4938,7 @@
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="60">
+      <c r="K76" s="48">
         <v>42571</v>
       </c>
     </row>
@@ -4914,7 +4965,7 @@
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="60">
+      <c r="K77" s="48">
         <v>42590</v>
       </c>
     </row>
@@ -4963,7 +5014,7 @@
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="60">
+      <c r="K79" s="48">
         <v>42621</v>
       </c>
     </row>
@@ -5007,7 +5058,7 @@
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="60">
+      <c r="K81" s="48">
         <v>42643</v>
       </c>
     </row>
@@ -5034,7 +5085,7 @@
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="60">
+      <c r="K82" s="48">
         <v>42661</v>
       </c>
     </row>
@@ -5061,7 +5112,7 @@
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="60">
+      <c r="K83" s="48">
         <v>42676</v>
       </c>
     </row>
@@ -5108,12 +5159,12 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="60">
+      <c r="K85" s="48">
         <v>42699</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="59" t="s">
+      <c r="A86" s="47" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="20"/>
@@ -5128,7 +5179,7 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="60"/>
+      <c r="K86" s="48"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
@@ -5153,7 +5204,7 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="60">
+      <c r="K87" s="48">
         <v>42758</v>
       </c>
     </row>
@@ -5173,7 +5224,7 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="60">
+      <c r="K88" s="48">
         <v>42752</v>
       </c>
     </row>
@@ -5195,7 +5246,7 @@
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="60">
+      <c r="K89" s="48">
         <v>42754</v>
       </c>
     </row>
@@ -5217,7 +5268,7 @@
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="60">
+      <c r="K90" s="48">
         <v>42765</v>
       </c>
     </row>
@@ -5244,7 +5295,7 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="60">
+      <c r="K91" s="48">
         <v>42795</v>
       </c>
     </row>
@@ -5292,7 +5343,7 @@
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="60">
+      <c r="K93" s="48">
         <v>42852</v>
       </c>
     </row>
@@ -5458,7 +5509,7 @@
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="60">
+      <c r="K100" s="48">
         <v>43012</v>
       </c>
     </row>
@@ -5480,7 +5531,7 @@
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="60" t="s">
+      <c r="K101" s="48" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5532,7 +5583,7 @@
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="60">
+      <c r="K103" s="48">
         <v>43070</v>
       </c>
     </row>
@@ -5554,12 +5605,12 @@
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="60">
+      <c r="K104" s="48">
         <v>43073</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="47" t="s">
         <v>93</v>
       </c>
       <c r="B105" s="20"/>
@@ -5574,7 +5625,7 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="60"/>
+      <c r="K105" s="48"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
@@ -5599,7 +5650,7 @@
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="60">
+      <c r="K106" s="48">
         <v>43130</v>
       </c>
     </row>
@@ -5626,7 +5677,7 @@
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="60">
+      <c r="K107" s="48">
         <v>43140</v>
       </c>
     </row>
@@ -5651,7 +5702,7 @@
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="60">
+      <c r="K108" s="48">
         <v>43168</v>
       </c>
     </row>
@@ -5673,7 +5724,7 @@
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="60">
+      <c r="K109" s="48">
         <v>43182</v>
       </c>
     </row>
@@ -5700,7 +5751,7 @@
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="60">
+      <c r="K110" s="48">
         <v>43203</v>
       </c>
     </row>
@@ -5727,7 +5778,7 @@
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="60">
+      <c r="K111" s="48">
         <v>43222</v>
       </c>
     </row>
@@ -5864,7 +5915,7 @@
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="60">
+      <c r="K117" s="48">
         <v>43319</v>
       </c>
     </row>
@@ -5886,7 +5937,7 @@
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="60"/>
+      <c r="K118" s="48"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
@@ -5936,7 +5987,7 @@
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="60">
+      <c r="K120" s="48">
         <v>43377</v>
       </c>
     </row>
@@ -5958,7 +6009,7 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="60"/>
+      <c r="K121" s="48"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
@@ -6053,7 +6104,7 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="59" t="s">
+      <c r="A126" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B126" s="20"/>
@@ -6114,10 +6165,12 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <f t="shared" ref="A129:A136" si="3">EDATE(A128,1)</f>
+        <f t="shared" ref="A129:A137" si="3">EDATE(A128,1)</f>
         <v>43525</v>
       </c>
-      <c r="B129" s="20"/>
+      <c r="B129" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C129" s="13">
         <v>1.25</v>
       </c>
@@ -6128,17 +6181,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H129" s="39"/>
+      <c r="H129" s="39">
+        <v>1</v>
+      </c>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="48">
+        <v>43549</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="3"/>
         <v>43556</v>
       </c>
-      <c r="B130" s="20"/>
+      <c r="B130" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C130" s="13">
         <v>1.25</v>
       </c>
@@ -6149,21 +6208,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H130" s="39"/>
+      <c r="H130" s="39">
+        <v>2</v>
+      </c>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
+      <c r="K130" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="3"/>
         <v>43586</v>
       </c>
-      <c r="B131" s="20"/>
+      <c r="B131" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C131" s="13">
         <v>1.25</v>
       </c>
-      <c r="D131" s="39"/>
+      <c r="D131" s="39">
+        <v>1</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
       <c r="G131" s="13">
@@ -6173,33 +6240,34 @@
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="48">
+        <v>43607</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40">
-        <f t="shared" si="3"/>
-        <v>43617</v>
-      </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="13"/>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
+      <c r="K132" s="48">
+        <v>43601</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <f t="shared" si="3"/>
-        <v>43647</v>
+        <f>EDATE(A131,1)</f>
+        <v>43617</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -6220,7 +6288,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="3"/>
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -6241,9 +6309,11 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="3"/>
-        <v>43709</v>
-      </c>
-      <c r="B135" s="20"/>
+        <v>43678</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C135" s="13">
         <v>1.25</v>
       </c>
@@ -6254,15 +6324,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H135" s="39"/>
+      <c r="H135" s="39">
+        <v>1</v>
+      </c>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
+      <c r="K135" s="48">
+        <v>43685</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="3"/>
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13">
@@ -6282,8 +6356,8 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <f>EDATE(A136,1)</f>
-        <v>43770</v>
+        <f t="shared" si="3"/>
+        <v>43739</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -6303,8 +6377,8 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <f t="shared" ref="A138:A145" si="4">EDATE(A137,1)</f>
-        <v>43800</v>
+        <f>EDATE(A137,1)</f>
+        <v>43770</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13">
@@ -6324,14 +6398,18 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <f t="shared" si="4"/>
-        <v>43831</v>
-      </c>
-      <c r="B139" s="20"/>
+        <f t="shared" ref="A139:A147" si="4">EDATE(A138,1)</f>
+        <v>43800</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C139" s="13">
         <v>1.25</v>
       </c>
-      <c r="D139" s="39"/>
+      <c r="D139" s="39">
+        <v>4</v>
+      </c>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
       <c r="G139" s="13">
@@ -6344,20 +6422,17 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="40">
-        <f t="shared" si="4"/>
-        <v>43862</v>
+      <c r="A140" s="47" t="s">
+        <v>107</v>
       </c>
       <c r="B140" s="20"/>
-      <c r="C140" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C140" s="13"/>
       <c r="D140" s="39"/>
       <c r="E140" s="9"/>
       <c r="F140" s="20"/>
-      <c r="G140" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H140" s="39"/>
       <c r="I140" s="9"/>
@@ -6366,8 +6441,8 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <f t="shared" si="4"/>
-        <v>43891</v>
+        <f>EDATE(A139,1)</f>
+        <v>43831</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -6388,7 +6463,7 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="4"/>
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
@@ -6409,7 +6484,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="4"/>
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -6430,7 +6505,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="4"/>
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13">
@@ -6451,7 +6526,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="4"/>
-        <v>44013</v>
+        <v>43952</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6471,8 +6546,8 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <f>EDATE(A145,1)</f>
-        <v>44044</v>
+        <f t="shared" si="4"/>
+        <v>43983</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13">
@@ -6492,8 +6567,8 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <f t="shared" ref="A147:A154" si="5">EDATE(A146,1)</f>
-        <v>44075</v>
+        <f t="shared" si="4"/>
+        <v>44013</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -6513,8 +6588,8 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <f t="shared" si="5"/>
-        <v>44105</v>
+        <f>EDATE(A147,1)</f>
+        <v>44044</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13">
@@ -6534,14 +6609,18 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <f t="shared" si="5"/>
-        <v>44136</v>
-      </c>
-      <c r="B149" s="20"/>
+        <f t="shared" ref="A149:A158" si="5">EDATE(A148,1)</f>
+        <v>44075</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C149" s="13">
         <v>1.25</v>
       </c>
-      <c r="D149" s="39"/>
+      <c r="D149" s="39">
+        <v>7</v>
+      </c>
       <c r="E149" s="9"/>
       <c r="F149" s="20"/>
       <c r="G149" s="13">
@@ -6551,12 +6630,14 @@
       <c r="H149" s="39"/>
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="20"/>
+      <c r="K149" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="5"/>
-        <v>44166</v>
+        <v>44105</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13">
@@ -6577,7 +6658,7 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="5"/>
-        <v>44197</v>
+        <v>44136</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -6598,7 +6679,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="5"/>
-        <v>44228</v>
+        <v>44166</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13">
@@ -6617,20 +6698,17 @@
       <c r="K152" s="20"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="40">
-        <f t="shared" si="5"/>
-        <v>44256</v>
+      <c r="A153" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="B153" s="20"/>
-      <c r="C153" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C153" s="13"/>
       <c r="D153" s="39"/>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
-      <c r="G153" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
@@ -6639,8 +6717,8 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <f t="shared" si="5"/>
-        <v>44287</v>
+        <f>EDATE(A152,1)</f>
+        <v>44197</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13">
@@ -6660,14 +6738,18 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <f>EDATE(A154,1)</f>
-        <v>44317</v>
-      </c>
-      <c r="B155" s="20"/>
+        <f t="shared" si="5"/>
+        <v>44228</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C155" s="13">
         <v>1.25</v>
       </c>
-      <c r="D155" s="39"/>
+      <c r="D155" s="39">
+        <v>1</v>
+      </c>
       <c r="E155" s="9"/>
       <c r="F155" s="20"/>
       <c r="G155" s="13">
@@ -6677,33 +6759,34 @@
       <c r="H155" s="39"/>
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
-      <c r="K155" s="20"/>
+      <c r="K155" s="48">
+        <v>44253</v>
+      </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="40">
-        <f t="shared" ref="A156:A164" si="6">EDATE(A155,1)</f>
-        <v>44348</v>
-      </c>
-      <c r="B156" s="20"/>
-      <c r="C156" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A156" s="40"/>
+      <c r="B156" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156" s="13"/>
       <c r="D156" s="39"/>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
-      <c r="G156" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="20"/>
+      <c r="K156" s="48" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <f t="shared" si="6"/>
-        <v>44378</v>
+        <f>EDATE(A155,1)</f>
+        <v>44256</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -6723,10 +6806,12 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <f t="shared" si="6"/>
-        <v>44409</v>
-      </c>
-      <c r="B158" s="20"/>
+        <f t="shared" si="5"/>
+        <v>44287</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C158" s="13">
         <v>1.25</v>
       </c>
@@ -6737,15 +6822,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H158" s="39"/>
+      <c r="H158" s="39">
+        <v>1</v>
+      </c>
       <c r="I158" s="9"/>
       <c r="J158" s="11"/>
-      <c r="K158" s="20"/>
+      <c r="K158" s="48">
+        <v>44315</v>
+      </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <f t="shared" si="6"/>
-        <v>44440</v>
+        <f>EDATE(A158,1)</f>
+        <v>44317</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -6765,8 +6854,8 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <f t="shared" si="6"/>
-        <v>44470</v>
+        <f t="shared" ref="A160:A164" si="6">EDATE(A159,1)</f>
+        <v>44348</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
@@ -6787,9 +6876,11 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="6"/>
-        <v>44501</v>
-      </c>
-      <c r="B161" s="20"/>
+        <v>44378</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
@@ -6803,12 +6894,14 @@
       <c r="H161" s="39"/>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="20"/>
+      <c r="K161" s="20" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="6"/>
-        <v>44531</v>
+        <v>44409</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13">
@@ -6829,7 +6922,7 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="6"/>
-        <v>44562</v>
+        <v>44440</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13">
@@ -6850,13 +6943,17 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="6"/>
-        <v>44593</v>
-      </c>
-      <c r="B164" s="20"/>
+        <v>44470</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C164" s="13">
         <v>1.25</v>
       </c>
-      <c r="D164" s="39"/>
+      <c r="D164" s="39">
+        <v>1</v>
+      </c>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
       <c r="G164" s="13">
@@ -6866,98 +6963,109 @@
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="20"/>
+      <c r="K164" s="48">
+        <v>44498</v>
+      </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="40">
-        <f>EDATE(A164,1)</f>
-        <v>44621</v>
-      </c>
-      <c r="B165" s="20"/>
-      <c r="C165" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D165" s="39"/>
+      <c r="A165" s="40"/>
+      <c r="B165" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C165" s="13"/>
+      <c r="D165" s="39">
+        <v>1</v>
+      </c>
       <c r="E165" s="9"/>
       <c r="F165" s="20"/>
-      <c r="G165" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G165" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H165" s="39"/>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="20"/>
+      <c r="K165" s="48">
+        <v>44526</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="40">
-        <f t="shared" ref="A166:A173" si="7">EDATE(A165,1)</f>
-        <v>44652</v>
-      </c>
-      <c r="B166" s="20"/>
-      <c r="C166" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A166" s="40"/>
+      <c r="B166" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C166" s="13"/>
       <c r="D166" s="39"/>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
-      <c r="G166" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H166" s="39"/>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="20"/>
+      <c r="K166" s="48" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="40">
-        <f t="shared" si="7"/>
-        <v>44682</v>
-      </c>
-      <c r="B167" s="20"/>
-      <c r="C167" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D167" s="39"/>
+      <c r="A167" s="40"/>
+      <c r="B167" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="39">
+        <v>1</v>
+      </c>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
-      <c r="G167" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H167" s="39"/>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="20"/>
+      <c r="K167" s="48">
+        <v>44544</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <f t="shared" si="7"/>
-        <v>44713</v>
-      </c>
-      <c r="B168" s="15"/>
+        <f>EDATE(A164,1)</f>
+        <v>44501</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C168" s="13">
         <v>1.25</v>
       </c>
-      <c r="D168" s="42"/>
+      <c r="D168" s="39">
+        <v>1</v>
+      </c>
       <c r="E168" s="9"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H168" s="42"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H168" s="39"/>
       <c r="I168" s="9"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="15"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="48">
+        <v>44518</v>
+      </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <f t="shared" si="7"/>
-        <v>44743</v>
-      </c>
-      <c r="B169" s="20"/>
+        <f>EDATE(A168,1)</f>
+        <v>44531</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C169" s="13">
         <v>1.25</v>
       </c>
@@ -6968,38 +7076,41 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H169" s="39"/>
+      <c r="H169" s="39">
+        <v>1</v>
+      </c>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="20"/>
+      <c r="K169" s="48">
+        <v>44532</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="40">
-        <f t="shared" si="7"/>
-        <v>44774</v>
+      <c r="A170" s="47" t="s">
+        <v>113</v>
       </c>
       <c r="B170" s="20"/>
-      <c r="C170" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C170" s="13"/>
       <c r="D170" s="39"/>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H170" s="39"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
+      <c r="K170" s="48"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <f t="shared" si="7"/>
-        <v>44805</v>
-      </c>
-      <c r="B171" s="20"/>
+        <f>EDATE(A169,1)</f>
+        <v>44562</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C171" s="13">
         <v>1.25</v>
       </c>
@@ -7013,56 +7124,58 @@
       <c r="H171" s="39"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="20"/>
+      <c r="K171" s="20" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="40">
-        <f t="shared" si="7"/>
-        <v>44835</v>
-      </c>
-      <c r="B172" s="20"/>
-      <c r="C172" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A172" s="40"/>
+      <c r="B172" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="13"/>
       <c r="D172" s="39"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G172" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H172" s="39"/>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="20"/>
+      <c r="K172" s="48">
+        <v>44566</v>
+      </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="40">
-        <f t="shared" si="7"/>
-        <v>44866</v>
-      </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A173" s="40"/>
+      <c r="B173" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173" s="13"/>
       <c r="D173" s="39"/>
       <c r="E173" s="9"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G173" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H173" s="39"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="20"/>
+      <c r="K173" s="48">
+        <v>44588</v>
+      </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <f>EDATE(A173,1)</f>
-        <v>44896</v>
-      </c>
-      <c r="B174" s="20"/>
+        <f>EDATE(A171,1)</f>
+        <v>44593</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C174" s="13">
         <v>1.25</v>
       </c>
@@ -7076,28 +7189,400 @@
       <c r="H174" s="39"/>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="20"/>
+      <c r="K174" s="20" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="40">
-        <f t="shared" ref="A175" si="8">EDATE(A174,1)</f>
-        <v>44927</v>
-      </c>
-      <c r="B175" s="20"/>
-      <c r="C175" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D175" s="39"/>
+      <c r="A175" s="40"/>
+      <c r="B175" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="39">
+        <v>1</v>
+      </c>
       <c r="E175" s="9"/>
       <c r="F175" s="20"/>
-      <c r="G175" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G175" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H175" s="39"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="20"/>
+      <c r="K175" s="48">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="40"/>
+      <c r="B176" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="39">
+        <v>4</v>
+      </c>
+      <c r="E176" s="9"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H176" s="39"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="40">
+        <f>EDATE(A174,1)</f>
+        <v>44621</v>
+      </c>
+      <c r="B177" s="20"/>
+      <c r="C177" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D177" s="39"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H177" s="39"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="20"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="40">
+        <f t="shared" ref="A178:A189" si="7">EDATE(A177,1)</f>
+        <v>44652</v>
+      </c>
+      <c r="B178" s="20"/>
+      <c r="C178" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D178" s="39"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H178" s="39"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="20"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="40">
+        <f t="shared" si="7"/>
+        <v>44682</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C179" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D179" s="39"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H179" s="39">
+        <v>1</v>
+      </c>
+      <c r="I179" s="9"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="48">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="40"/>
+      <c r="B180" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C180" s="13"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H180" s="42">
+        <v>1</v>
+      </c>
+      <c r="I180" s="9"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="61">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="40">
+        <f>EDATE(A179,1)</f>
+        <v>44713</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C181" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D181" s="42"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H181" s="42">
+        <v>1</v>
+      </c>
+      <c r="I181" s="9"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="61">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="40">
+        <f t="shared" si="7"/>
+        <v>44743</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C182" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D182" s="39">
+        <v>5</v>
+      </c>
+      <c r="E182" s="9"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H182" s="39"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="40">
+        <f t="shared" si="7"/>
+        <v>44774</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C183" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D183" s="39">
+        <v>1</v>
+      </c>
+      <c r="E183" s="9"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H183" s="39"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="48">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="40"/>
+      <c r="B184" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H184" s="39">
+        <v>1</v>
+      </c>
+      <c r="I184" s="9"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="48">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="40"/>
+      <c r="B185" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C185" s="13"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H185" s="39"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="40"/>
+      <c r="B186" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C186" s="13"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H186" s="39">
+        <v>1</v>
+      </c>
+      <c r="I186" s="9"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="48">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="40">
+        <f>EDATE(A183,1)</f>
+        <v>44805</v>
+      </c>
+      <c r="B187" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C187" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D187" s="39"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H187" s="39">
+        <v>1</v>
+      </c>
+      <c r="I187" s="9"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="48">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="40">
+        <f t="shared" si="7"/>
+        <v>44835</v>
+      </c>
+      <c r="B188" s="20"/>
+      <c r="C188" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D188" s="39"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H188" s="39"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="20"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="40">
+        <f t="shared" si="7"/>
+        <v>44866</v>
+      </c>
+      <c r="B189" s="20"/>
+      <c r="C189" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D189" s="39"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H189" s="39"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="20"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="40">
+        <f>EDATE(A189,1)</f>
+        <v>44896</v>
+      </c>
+      <c r="B190" s="20"/>
+      <c r="C190" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D190" s="39"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H190" s="39"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="20"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="40">
+        <f t="shared" ref="A191" si="8">EDATE(A190,1)</f>
+        <v>44927</v>
+      </c>
+      <c r="B191" s="20"/>
+      <c r="C191" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D191" s="39"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H191" s="39"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7163,17 +7648,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -7254,12 +7739,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E2D0FC-CDDB-4EDB-B778-EA73CFB882F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0F7149-89F4-4F8B-9310-9E9CEF060EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
   <si>
     <t>PERIOD</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>DOMESTIC 8/2</t>
+  </si>
+  <si>
+    <t>11/23 - 12/9/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA.9710(11-0-0) </t>
   </si>
 </sst>
 </file>
@@ -634,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,6 +782,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,7 +821,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2802,7 +2814,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K191" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K196" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3151,7 +3163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3180,12 +3192,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K191"/>
+  <dimension ref="A2:K196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A170" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A182" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
+      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3207,66 +3219,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="59">
         <v>41106</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3292,18 +3304,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3360,7 +3372,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>84.125</v>
+        <v>83.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7324,7 +7336,7 @@
       </c>
       <c r="I180" s="9"/>
       <c r="J180" s="12"/>
-      <c r="K180" s="61">
+      <c r="K180" s="49">
         <v>44706</v>
       </c>
     </row>
@@ -7351,7 +7363,7 @@
       </c>
       <c r="I181" s="9"/>
       <c r="J181" s="12"/>
-      <c r="K181" s="61">
+      <c r="K181" s="49">
         <v>44735</v>
       </c>
     </row>
@@ -7505,7 +7517,9 @@
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="B188" s="20"/>
+      <c r="B188" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C188" s="13">
         <v>1.25</v>
       </c>
@@ -7516,17 +7530,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H188" s="39"/>
+      <c r="H188" s="39">
+        <v>1</v>
+      </c>
       <c r="I188" s="9"/>
       <c r="J188" s="11"/>
-      <c r="K188" s="20"/>
+      <c r="K188" s="48">
+        <v>44851</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="7"/>
         <v>44866</v>
       </c>
-      <c r="B189" s="20"/>
+      <c r="B189" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C189" s="13">
         <v>1.25</v>
       </c>
@@ -7540,7 +7560,9 @@
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="20"/>
+      <c r="K189" s="20" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
@@ -7583,6 +7605,86 @@
       <c r="I191" s="9"/>
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="40"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H192" s="39"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="20"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="40"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="39"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H193" s="39"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="20"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="40"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="39"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H194" s="39"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="20"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="40"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="39"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H195" s="39"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="20"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="62"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="41"/>
+      <c r="D196" s="42"/>
+      <c r="E196" s="63"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H196" s="42"/>
+      <c r="I196" s="63"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7648,17 +7750,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -7739,12 +7841,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="134">
   <si>
     <t>PERIOD</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>UT(0-0-24)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -2833,7 +2839,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K342" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K344" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3211,12 +3217,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K342"/>
+  <dimension ref="A2:K344"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A193" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K207" sqref="K207"/>
+      <selection pane="bottomLeft" activeCell="K211" sqref="K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3381,7 +3387,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>91.217000000000013</v>
+        <v>89.717000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3391,7 +3397,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>82.125</v>
+        <v>83.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8001,45 +8007,61 @@
       <c r="A208" s="40">
         <v>45200</v>
       </c>
-      <c r="B208" s="20"/>
-      <c r="C208" s="13"/>
+      <c r="B208" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C208" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D208" s="39"/>
       <c r="E208" s="9"/>
       <c r="F208" s="20"/>
-      <c r="G208" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H208" s="39"/>
+      <c r="G208" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H208" s="39">
+        <v>1</v>
+      </c>
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
-      <c r="K208" s="20"/>
+      <c r="K208" s="48">
+        <v>45215</v>
+      </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>45231</v>
       </c>
-      <c r="B209" s="20"/>
-      <c r="C209" s="13"/>
+      <c r="B209" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C209" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D209" s="39"/>
       <c r="E209" s="9"/>
       <c r="F209" s="20"/>
-      <c r="G209" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G209" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H209" s="39"/>
       <c r="I209" s="9"/>
       <c r="J209" s="11"/>
-      <c r="K209" s="20"/>
+      <c r="K209" s="48">
+        <v>45261</v>
+      </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B210" s="20"/>
+      <c r="A210" s="40"/>
+      <c r="B210" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C210" s="13"/>
-      <c r="D210" s="39"/>
+      <c r="D210" s="39">
+        <v>1</v>
+      </c>
       <c r="E210" s="9"/>
       <c r="F210" s="20"/>
       <c r="G210" s="13" t="str">
@@ -8049,15 +8071,21 @@
       <c r="H210" s="39"/>
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
-      <c r="K210" s="20"/>
+      <c r="K210" s="48">
+        <v>45253</v>
+      </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B211" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C211" s="13"/>
-      <c r="D211" s="39"/>
+      <c r="D211" s="39">
+        <v>3</v>
+      </c>
       <c r="E211" s="9"/>
       <c r="F211" s="20"/>
       <c r="G211" s="13" t="str">
@@ -8067,11 +8095,13 @@
       <c r="H211" s="39"/>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="20"/>
+      <c r="K211" s="20" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="40">
-        <v>45323</v>
+      <c r="A212" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -8089,7 +8119,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -8107,7 +8137,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -8125,7 +8155,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -8143,7 +8173,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -8161,7 +8191,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -8179,7 +8209,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -8197,7 +8227,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -8215,7 +8245,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -8233,7 +8263,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -8251,7 +8281,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -8269,7 +8299,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -8287,7 +8317,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -8305,7 +8335,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -8323,7 +8353,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -8341,7 +8371,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -8359,7 +8389,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -8377,7 +8407,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -8395,7 +8425,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -8413,7 +8443,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -8431,7 +8461,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -8449,7 +8479,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -8467,7 +8497,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -8485,7 +8515,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -8503,7 +8533,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -8521,7 +8551,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -8539,7 +8569,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -8557,7 +8587,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -8575,7 +8605,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -8593,7 +8623,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -8611,7 +8641,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -8629,7 +8659,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -8647,7 +8677,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -8665,7 +8695,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -8683,7 +8713,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -8701,7 +8731,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -8719,7 +8749,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -8737,7 +8767,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -8755,7 +8785,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -8773,7 +8803,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -8791,7 +8821,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -8809,7 +8839,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -8827,7 +8857,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -8845,7 +8875,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -8863,7 +8893,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -8881,7 +8911,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -8899,7 +8929,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -8917,7 +8947,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -8935,7 +8965,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -8953,7 +8983,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -8971,7 +9001,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -8989,7 +9019,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -9007,7 +9037,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -9025,7 +9055,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -9043,7 +9073,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -9061,7 +9091,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -9079,7 +9109,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -9097,7 +9127,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -9115,7 +9145,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -9133,7 +9163,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -9151,7 +9181,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -9169,7 +9199,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -9187,7 +9217,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -9205,7 +9235,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -9223,7 +9253,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -9241,7 +9271,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -9259,7 +9289,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -9277,7 +9307,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -9295,7 +9325,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -9313,7 +9343,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -9331,7 +9361,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -9349,7 +9379,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -9367,7 +9397,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -9385,7 +9415,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -9403,7 +9433,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -9421,7 +9451,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -9439,7 +9469,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -9457,7 +9487,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -9475,7 +9505,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -9493,7 +9523,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -9511,7 +9541,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -9529,7 +9559,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -9547,7 +9577,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -9565,7 +9595,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -9583,7 +9613,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -9601,7 +9631,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -9619,7 +9649,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -9637,7 +9667,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -9655,7 +9685,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -9673,7 +9703,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -9691,7 +9721,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -9709,7 +9739,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -9727,7 +9757,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -9745,7 +9775,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -9763,7 +9793,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
-        <v>48183</v>
+        <v>48122</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -9781,7 +9811,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
-        <v>48214</v>
+        <v>48153</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -9799,7 +9829,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
-        <v>48245</v>
+        <v>48183</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -9817,7 +9847,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
-        <v>48274</v>
+        <v>48214</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -9835,7 +9865,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
-        <v>48305</v>
+        <v>48245</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -9853,7 +9883,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
-        <v>48335</v>
+        <v>48274</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -9871,7 +9901,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
-        <v>48366</v>
+        <v>48305</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -9889,7 +9919,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
-        <v>48396</v>
+        <v>48335</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -9907,7 +9937,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
-        <v>48427</v>
+        <v>48366</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -9925,7 +9955,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>48458</v>
+        <v>48396</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -9943,7 +9973,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
-        <v>48488</v>
+        <v>48427</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -9961,7 +9991,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
-        <v>48519</v>
+        <v>48458</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -9979,7 +10009,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>48549</v>
+        <v>48488</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -9997,7 +10027,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
-        <v>48580</v>
+        <v>48519</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -10015,7 +10045,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>48611</v>
+        <v>48549</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -10033,7 +10063,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
-        <v>48639</v>
+        <v>48580</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -10051,7 +10081,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>48670</v>
+        <v>48611</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -10069,7 +10099,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <v>48700</v>
+        <v>48639</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -10087,7 +10117,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
-        <v>48731</v>
+        <v>48670</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -10105,7 +10135,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>48761</v>
+        <v>48700</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -10123,7 +10153,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>48792</v>
+        <v>48731</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -10141,7 +10171,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>48823</v>
+        <v>48761</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -10159,7 +10189,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>48853</v>
+        <v>48792</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -10177,7 +10207,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>48884</v>
+        <v>48823</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -10195,7 +10225,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>48914</v>
+        <v>48853</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -10213,7 +10243,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>48945</v>
+        <v>48884</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -10231,7 +10261,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
-        <v>48976</v>
+        <v>48914</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -10249,7 +10279,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>49004</v>
+        <v>48945</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -10267,7 +10297,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
-        <v>49035</v>
+        <v>48976</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -10285,7 +10315,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
-        <v>49065</v>
+        <v>49004</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -10303,7 +10333,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
-        <v>49096</v>
+        <v>49035</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -10321,7 +10351,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
-        <v>49126</v>
+        <v>49065</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -10339,7 +10369,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
-        <v>49157</v>
+        <v>49096</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -10357,7 +10387,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
-        <v>49188</v>
+        <v>49126</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -10375,7 +10405,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
-        <v>49218</v>
+        <v>49157</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -10393,7 +10423,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
-        <v>49249</v>
+        <v>49188</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -10411,7 +10441,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
-        <v>49279</v>
+        <v>49218</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -10426,6 +10456,42 @@
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="40">
+        <v>49249</v>
+      </c>
+      <c r="B343" s="20"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="39"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H343" s="39"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="20"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="40">
+        <v>49279</v>
+      </c>
+      <c r="B344" s="20"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="39"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H344" s="39"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
